--- a/biology/Zoologie/Ammomane_de_Gray/Ammomane_de_Gray.xlsx
+++ b/biology/Zoologie/Ammomane_de_Gray/Ammomane_de_Gray.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ammomanopsis grayi · Alouette de Gray, Sirli de Gray
-L’Ammomane de Gray (Ammomanopsis grayi), également appelée Alouette de Gray[1] ou Sirli de Gray[1], et unique représentant du genre Ammomanopsis, est une espèce d'oiseaux de la famille des Alaudidae (les alouettes). Elle est présente dans le désert du Namib (en Angola et Namibie).
+L’Ammomane de Gray (Ammomanopsis grayi), également appelée Alouette de Gray ou Sirli de Gray, et unique représentant du genre Ammomanopsis, est une espèce d'oiseaux de la famille des Alaudidae (les alouettes). Elle est présente dans le désert du Namib (en Angola et Namibie).
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Ammomanopsis grayi a été décrite pour la première fois en 1855 par le naturaliste et collectionneur suédois Johan August Wahlberg (1810-1856) sous le protonyme Alauda grayi[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Ammomanopsis grayi a été décrite pour la première fois en 1855 par le naturaliste et collectionneur suédois Johan August Wahlberg (1810-1856) sous le protonyme Alauda grayi.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon la classification de référence du Congrès ornithologique international  (version 12.2, 2022)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon la classification de référence du Congrès ornithologique international  (version 12.2, 2022) :
 sous-espèce Ammomanopsis grayi hoeschi (Niethammer, 1955)
 sous-espèce Ammomanopsis grayi grayi (Wahlberg, 1855)</t>
         </is>
